--- a/biology/Zoologie/Cherbocnus/Cherbocnus.xlsx
+++ b/biology/Zoologie/Cherbocnus/Cherbocnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cherbocnus est un genre d'holothuries (concombres de mer) abyssales de la famille des Cucumariidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cherbocnus  a été créé en 2014 par le zoologiste sud-africain Ahmed Suleman Thandar (d) dans une publication qu'il a coécrit avec Sifiso Mjobo (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 juillet 2021) :
 Cherbocnus cabindaensis (Cherbonnier, 1949)
 Cherbocnus ransoni (Cherbonnier, 1949)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Ahmed S. Thandar et Sifiso Mjobo, « On some sea cucumbers from Ghana (Echinodermata: Holothuroidea) with descriptions of a new genus and one new species », Zootaxa, Magnolia Press (d), vol. 3900, no 2,‎ 22 décembre 2014, p. 243–254 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 25543735, DOI 10.11646/ZOOTAXA.3900.2.4)</t>
         </is>
